--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed4/result_data_KNN.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.236</v>
+        <v>16.386</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.126</v>
+        <v>5.717000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.842</v>
+        <v>-21.33</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.784000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.232</v>
+        <v>-22.116</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.508</v>
+        <v>6.468999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -695,12 +695,12 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.417</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.948</v>
+        <v>-21.95</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.214</v>
+        <v>-21.93</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>7.590000000000001</v>
+        <v>8.138999999999999</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.932</v>
+        <v>-20.257</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.484</v>
+        <v>-21.526</v>
       </c>
       <c r="B26" t="n">
-        <v>6.028</v>
+        <v>6.018000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.626</v>
+        <v>-21.37</v>
       </c>
       <c r="B27" t="n">
-        <v>5.649999999999999</v>
+        <v>5.694999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -916,15 +916,15 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.564</v>
+        <v>17.077</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.596</v>
+        <v>-21.752</v>
       </c>
       <c r="B29" t="n">
-        <v>6.592000000000001</v>
+        <v>6.425</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.7</v>
+        <v>17.288</v>
       </c>
     </row>
     <row r="34">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.132</v>
+        <v>-20.244</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1035,12 +1035,12 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.402</v>
+        <v>16.522</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.206</v>
+        <v>-21.057</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.416</v>
+        <v>8.402000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.906000000000001</v>
+        <v>5.748</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.566</v>
+        <v>16.531</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.612</v>
+        <v>17.092</v>
       </c>
     </row>
     <row r="44">
@@ -1188,12 +1188,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.424</v>
+        <v>16.559</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.704</v>
+        <v>-21.706</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>17.108</v>
+        <v>17.009</v>
       </c>
     </row>
     <row r="46">
@@ -1230,7 +1230,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.385999999999999</v>
+        <v>5.361</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.566</v>
+        <v>16.621</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.308000000000001</v>
+        <v>6.264</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.076</v>
+        <v>16.934</v>
       </c>
     </row>
     <row r="52">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.45</v>
+        <v>5.387</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1358,15 +1358,15 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.236</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.324</v>
+        <v>-21.641</v>
       </c>
       <c r="B55" t="n">
-        <v>6.703999999999999</v>
+        <v>5.531000000000001</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.214</v>
+        <v>-22.125</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.27</v>
+        <v>16.331</v>
       </c>
     </row>
     <row r="58">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.508</v>
+        <v>16.154</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.732</v>
+        <v>17.67299999999999</v>
       </c>
     </row>
     <row r="64">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.062</v>
+        <v>17.373</v>
       </c>
     </row>
     <row r="68">
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.676</v>
+        <v>-21.584</v>
       </c>
       <c r="B69" t="n">
-        <v>5.218</v>
+        <v>5.723000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,7 +1621,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.744</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.77</v>
+        <v>17.31</v>
       </c>
     </row>
     <row r="71">
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-21.832</v>
+        <v>-22.125</v>
       </c>
       <c r="B76" t="n">
-        <v>5.367999999999999</v>
+        <v>5.178</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.154</v>
+        <v>-20.242</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.768000000000001</v>
+        <v>5.842000000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.474</v>
+        <v>16.638</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.226</v>
+        <v>-22.018</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-19.754</v>
+        <v>-20.237</v>
       </c>
       <c r="B83" t="n">
-        <v>7.332000000000001</v>
+        <v>7.086</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.672</v>
+        <v>16.363</v>
       </c>
     </row>
     <row r="89">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.88</v>
+        <v>-21.576</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>7.704000000000001</v>
+        <v>6.465999999999999</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2072,12 +2072,12 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.13</v>
+        <v>16.324</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-22.166</v>
+        <v>-22.136</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.422</v>
+        <v>16.611</v>
       </c>
     </row>
     <row r="100">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>5.199</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.839999999999999</v>
+        <v>6.898999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
